--- a/documentatie-mick/Backlog-Userstories.xlsx
+++ b/documentatie-mick/Backlog-Userstories.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\B3.2\B3.2\documentatie-mick\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E00681C9-F8E2-4C3C-B1E0-3D28667F644C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D8DE63-0E83-4C47-AAB6-F43269D41838}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4501FDD0-6F71-D643-988A-7F3C18E085CC}"/>
   </bookViews>
@@ -627,7 +627,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -678,7 +678,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>11</v>
@@ -698,7 +698,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>11</v>
@@ -718,7 +718,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>11</v>
@@ -738,7 +738,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>11</v>
@@ -758,7 +758,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>11</v>
@@ -778,7 +778,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>11</v>
@@ -798,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>11</v>
@@ -823,7 +823,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>11</v>
@@ -843,7 +843,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>11</v>
@@ -863,7 +863,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>11</v>
@@ -883,7 +883,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>11</v>
@@ -903,7 +903,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>11</v>
@@ -923,7 +923,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>11</v>
@@ -943,7 +943,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>11</v>
@@ -963,7 +963,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>11</v>
@@ -983,7 +983,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>11</v>
@@ -1003,7 +1003,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>11</v>
@@ -1023,7 +1023,7 @@
         <v>1</v>
       </c>
       <c r="E21" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>11</v>
